--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Vauclair_(psychologue)/Jacques_Vauclair_(psychologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Vauclair_(psychologue)/Jacques_Vauclair_(psychologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Vauclair, né en 1947, est un psychologue français d'origine suisse. Il est professeur émérite de psychologie cognitive à l'université d'Aix-Marseille.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de psychologie expérimentale et psychologie de l'enfant à l'université de Genève. Il a été assistant de recherche au Centre international d'épistémologie génétique dirigé par Jean Piaget et, simultanément, assistant au Laboratoire d'éthologie dans lequel il a réalisé sa thèse en psychologie génétique et expérimentale. Il est secrétaire général du Centre International d'Epistémologie Génétique à Genève en 1971-1978. Après un stage postdoctoral au National Research Primate Center d'Atlanta (USA), il est recruté en 1982 au CNRS à Marseille dans l'Institut de neurophysiologie et psychophysiologie. Il est  membre du laboratoire marseillais de Neurosciences fonctionnelles, devenu Centre de recherche en Neurosciences cognitives, dirigé par Jean Requin, où il a créé l'équipe de psychologie comparée de la cognition. 
 Il est président de la Société Francophone de Primatologie en 1994-1995. Il est vice-président de la Société Française de Psychologie (SFP), responsable du Département Recherche en 2000-2005 et vice-président de la SFP, chargé des relations internationales entre 2005 et 2007.
-En 1998, il est professeur de psychologie du développement à l'université d'Aix-Marseille[1]. Il fonde en 2000 le Centre de recherche en psychologie de la connaissance, du langage et de l'émotion (EA 3273), à Aix-en-Provence, qu'il dirige jusqu'à son départ à la retraite. Directeur de l'École Doctorale "Cognition, Langage, Éducation" (ED 356) en 2008-2011. Il préside le Comité National Français de Psychologie Scientifique entre 2005 et 2008. Il est professeur émérite depuis 2013.
+En 1998, il est professeur de psychologie du développement à l'université d'Aix-Marseille. Il fonde en 2000 le Centre de recherche en psychologie de la connaissance, du langage et de l'émotion (EA 3273), à Aix-en-Provence, qu'il dirige jusqu'à son départ à la retraite. Directeur de l'École Doctorale "Cognition, Langage, Éducation" (ED 356) en 2008-2011. Il préside le Comité National Français de Psychologie Scientifique entre 2005 et 2008. Il est professeur émérite depuis 2013.
 Il est membre de l'Institut universitaire de France en 2008-2013.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 : médaille d'argent du CNRS
 2013 : médaille d'Aix-Marseille Université</t>
